--- a/output/StructureDefinition-CoverageEligibilityResponse.xlsx
+++ b/output/StructureDefinition-CoverageEligibilityResponse.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="346">
   <si>
     <t>Path</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>This resource provides eligibility and plan details from the processing of an CoverageEligibilityRequest resource.</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -329,16 +326,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -362,6 +349,126 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>CoverageEligibilityResponse.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for coverage eligiblity request</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this coverage eligiblity request.</t>
+  </si>
+  <si>
+    <t>Allows coverage eligibility requests to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.purpose</t>
+  </si>
+  <si>
+    <t>auth-requirements | benefits | discovery | validation</t>
+  </si>
+  <si>
+    <t>Code to specify whether requesting: prior authorization requirements for some service categories or billing codes; benefits for coverages specified or discovered; discovery and return of coverages for the patient; and/or validation that the specified coverage is in-force at the date/period specified or 'now' if not specified.</t>
+  </si>
+  <si>
+    <t>To indicate the processing actions requested.</t>
+  </si>
+  <si>
+    <t>A code specifying the types of information being requested.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/eligibilityresponse-purpose|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Intended recipient of products and services</t>
+  </si>
+  <si>
+    <t>The party who is the beneficiary of the supplied coverage and for whom eligibility is sought.</t>
+  </si>
+  <si>
+    <t>Required to provide context and coverage validation.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>C06,C07,C08, C05, C04</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.serviced[x]</t>
+  </si>
+  <si>
+    <t>date
+Period</t>
+  </si>
+  <si>
+    <t>Estimated date or dates of service</t>
+  </si>
+  <si>
+    <t>The date or dates when the enclosed suite of services were performed or completed.</t>
+  </si>
+  <si>
+    <t>Required to provide time context for the request.</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
     <t>CoverageEligibilityResponse.created</t>
   </si>
   <si>
@@ -381,6 +488,74 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
+    <t>CoverageEligibilityResponse.requestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Party responsible for the request</t>
+  </si>
+  <si>
+    <t>The provider which is responsible for the request.</t>
+  </si>
+  <si>
+    <t>Typically this field would be 1..1 where this party is responsible for the claim but not necessarily professionally responsible for the provision of the individual products and services listed below.</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CoverageEligibilityRequest)
+</t>
+  </si>
+  <si>
+    <t>Eligibility request reference</t>
+  </si>
+  <si>
+    <t>Reference to the original request resource.</t>
+  </si>
+  <si>
+    <t>Needed to allow the response to be linked to the request.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>A02|G01</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.outcome</t>
+  </si>
+  <si>
+    <t>queued | complete | error | partial</t>
+  </si>
+  <si>
+    <t>The outcome of the request processing.</t>
+  </si>
+  <si>
+    <t>The resource may be used to indicate that: the request has been held (queued) for processing; that it has been processed and errors found (error); that no errors were found and that some of the adjudication has been undertaken (partial) or that all of the adjudication has been undertaken (complete).</t>
+  </si>
+  <si>
+    <t>To advise the requestor of an overall processing outcome.</t>
+  </si>
+  <si>
+    <t>The outcome of the processing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/remittance-outcome|4.0.1</t>
+  </si>
+  <si>
     <t>CoverageEligibilityResponse.disposition</t>
   </si>
   <si>
@@ -396,209 +571,333 @@
     <t>Event.note</t>
   </si>
   <si>
-    <t>CoverageEligibilityResponse.error</t>
+    <t>CoverageEligibilityResponse.insurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Coverage issuer</t>
+  </si>
+  <si>
+    <t>The Insurer who issued the coverage in question and is the author of the response.</t>
+  </si>
+  <si>
+    <t>Need to identify the author.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Processing errors</t>
-  </si>
-  <si>
-    <t>Errors encountered during the processing of the request.</t>
-  </si>
-  <si>
-    <t>Need to communicate processing issues to the requestor.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.error.code</t>
+    <t>Patient insurance information</t>
+  </si>
+  <si>
+    <t>Financial instruments for reimbursement for the health care products and services.</t>
+  </si>
+  <si>
+    <t>All insurance coverages for the patient which may be applicable for reimbursement, of the products and services listed in the claim, are typically provided in the claim to allow insurers to confirm the ordering of the insurance coverages relative to local 'coordination of benefit' rules. One coverage (and only one) with 'focal=true' is to be used in the adjudication of this claim. Coverages appearing before the focal Coverage in the list, and where 'subrogation=false', should provide a reference to the ClaimResponse containing the adjudication results of the prior claim.</t>
+  </si>
+  <si>
+    <t>There must be at least one coverage for which eligibility is requested.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage)
+</t>
+  </si>
+  <si>
+    <t>Insurance information</t>
+  </si>
+  <si>
+    <t>Reference to the insurance card level information contained in the Coverage resource. The coverage issuing insurer will use these details to locate the patient's actual coverage within the insurer's information system.</t>
+  </si>
+  <si>
+    <t>Required to allow the adjudicator to locate the correct policy and history within their information system.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.inforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Coverage inforce indicator</t>
+  </si>
+  <si>
+    <t>Flag indicating if the coverage provided is inforce currently if no service date(s) specified or for the whole duration of the service dates.</t>
+  </si>
+  <si>
+    <t>Needed to convey the answer to the eligibility validation request.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.benefitPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the benefits are applicable</t>
+  </si>
+  <si>
+    <t>The term of the benefits documented in this response.</t>
+  </si>
+  <si>
+    <t>Needed as coverages may be multi-year while benefits tend to be annual therefore a separate expression of the benefit period is needed.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item</t>
+  </si>
+  <si>
+    <t>Benefits and authorization details</t>
+  </si>
+  <si>
+    <t>Benefits and optionally current balances, and authorization details by category or service.</t>
+  </si>
+  <si>
+    <t>ces-1:SHALL contain a category or a billcode but not both. {category.exists() xor productOrService.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.id</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.modifierExtension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Error code detailing processing issues</t>
-  </si>
-  <si>
-    <t>An error code,from a specified code system, which details why the eligibility check could not be performed.</t>
-  </si>
-  <si>
-    <t>Required to convey processing errors.</t>
+    <t>Benefit classification</t>
+  </si>
+  <si>
+    <t>Code to identify the general type of benefits under which products and services are provided.</t>
+  </si>
+  <si>
+    <t>Examples include Medical Care, Periodontics, Renal Dialysis, Vision Coverage.</t>
+  </si>
+  <si>
+    <t>Needed to convey the category of service or product for which eligibility is sought.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>The error codes for adjudication processing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/adjudication-error</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.form</t>
-  </si>
-  <si>
-    <t>Printed form identifier</t>
-  </si>
-  <si>
-    <t>A code for the form to be used for printing the content.</t>
-  </si>
-  <si>
-    <t>May be needed to identify specific jurisdictional forms.</t>
-  </si>
-  <si>
-    <t>Needed to specify the specific form used for producing output for this response.</t>
-  </si>
-  <si>
-    <t>The forms codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/forms</t>
-  </si>
-  <si>
-    <t>G42</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Benefit categories such as: oral, medical, vision etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ex-benefitcategory</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.productOrService</t>
+  </si>
+  <si>
+    <t>Drug Code
+Bill CodeService Code</t>
+  </si>
+  <si>
+    <t>Billing, service, product, or drug code</t>
+  </si>
+  <si>
+    <t>This contains the product, service, drug or other billing code for the item.</t>
+  </si>
+  <si>
+    <t>Code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI).</t>
+  </si>
+  <si>
+    <t>Needed to convey the actual service or product for which eligibility is sought.</t>
+  </si>
+  <si>
+    <t>Allowable service and product codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-uscls</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.modifier</t>
+  </si>
+  <si>
+    <t>Product or service billing modifiers</t>
+  </si>
+  <si>
+    <t>Item typification or modifiers codes to convey additional context for the product or service.</t>
+  </si>
+  <si>
+    <t>For example in Oral whether the treatment is cosmetic or associated with TMJ, or for Medical whether the treatment was outside the clinic or out of office hours.</t>
+  </si>
+  <si>
+    <t>To support provision of the item or to charge an elevated fee.</t>
+  </si>
+  <si>
+    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/claim-modifiers</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Business Identifier for coverage eligiblity request</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this coverage eligiblity request.</t>
-  </si>
-  <si>
-    <t>Allows coverage eligibility requests to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance</t>
-  </si>
-  <si>
-    <t>Patient insurance information</t>
-  </si>
-  <si>
-    <t>Financial instruments for reimbursement for the health care products and services.</t>
-  </si>
-  <si>
-    <t>All insurance coverages for the patient which may be applicable for reimbursement, of the products and services listed in the claim, are typically provided in the claim to allow insurers to confirm the ordering of the insurance coverages relative to local 'coordination of benefit' rules. One coverage (and only one) with 'focal=true' is to be used in the adjudication of this claim. Coverages appearing before the focal Coverage in the list, and where 'subrogation=false', should provide a reference to the ClaimResponse containing the adjudication results of the prior claim.</t>
-  </si>
-  <si>
-    <t>There must be at least one coverage for which eligibility is requested.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.benefitPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the benefits are applicable</t>
-  </si>
-  <si>
-    <t>The term of the benefits documented in this response.</t>
-  </si>
-  <si>
-    <t>Needed as coverages may be multi-year while benefits tend to be annual therefore a separate expression of the benefit period is needed.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Coverage)
-</t>
-  </si>
-  <si>
-    <t>Insurance information</t>
-  </si>
-  <si>
-    <t>Reference to the insurance card level information contained in the Coverage resource. The coverage issuing insurer will use these details to locate the patient's actual coverage within the insurer's information system.</t>
-  </si>
-  <si>
-    <t>Required to allow the adjudicator to locate the correct policy and history within their information system.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.inforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Coverage inforce indicator</t>
-  </si>
-  <si>
-    <t>Flag indicating if the coverage provided is inforce currently if no service date(s) specified or for the whole duration of the service dates.</t>
-  </si>
-  <si>
-    <t>Needed to convey the answer to the eligibility validation request.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item</t>
-  </si>
-  <si>
-    <t>Benefits and authorization details</t>
-  </si>
-  <si>
-    <t>Benefits and optionally current balances, and authorization details by category or service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ces-1:SHALL contain a category or a billcode but not both. {category.exists() xor productOrService.exists()}
-</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.authorizationRequired</t>
-  </si>
-  <si>
-    <t>Authorization required flag</t>
-  </si>
-  <si>
-    <t>A boolean flag indicating whether a preauthorization is required prior to actual service delivery.</t>
-  </si>
-  <si>
-    <t>Needed to convey that preauthorization is required.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.authorizationSupporting</t>
-  </si>
-  <si>
-    <t>Type of required supporting materials</t>
-  </si>
-  <si>
-    <t>Codes or comments regarding information or actions associated with the preauthorization.</t>
-  </si>
-  <si>
-    <t>Needed to inform the provider of collateral materials or actions needed for preauthorization.</t>
-  </si>
-  <si>
-    <t>Type of supporting information to provide with a preauthorization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverageeligibilityresponse-ex-auth-support</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.authorizationUrl</t>
-  </si>
-  <si>
-    <t>Preauthorization requirements endpoint</t>
-  </si>
-  <si>
-    <t>A web location for obtaining requirements or descriptive information regarding the preauthorization.</t>
-  </si>
-  <si>
-    <t>Needed to enable insurers to advise providers of informative information.</t>
+    <t>Performing practitioner</t>
+  </si>
+  <si>
+    <t>The practitioner who is eligible for the provision of the product or service.</t>
+  </si>
+  <si>
+    <t>Needed to convey the eligible provider.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.excluded</t>
+  </si>
+  <si>
+    <t>Excluded from the plan</t>
+  </si>
+  <si>
+    <t>True if the indicated class of service is excluded from the plan, missing or False indicates the product or service is included in the coverage.</t>
+  </si>
+  <si>
+    <t>Needed to identify items that are specifically excluded from the coverage.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.name</t>
+  </si>
+  <si>
+    <t>Short name for the benefit</t>
+  </si>
+  <si>
+    <t>A short name or tag for the benefit.</t>
+  </si>
+  <si>
+    <t>For example: MED01, or DENT2.</t>
+  </si>
+  <si>
+    <t>Required to align with other plan names.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.description</t>
+  </si>
+  <si>
+    <t>Description of the benefit or services covered</t>
+  </si>
+  <si>
+    <t>A richer description of the benefit or services covered.</t>
+  </si>
+  <si>
+    <t>For example 'DENT2 covers 100% of basic, 50% of major but excludes Ortho, Implants and Cosmetic services'.</t>
+  </si>
+  <si>
+    <t>Needed for human readable reference.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.network</t>
+  </si>
+  <si>
+    <t>In or out of network</t>
+  </si>
+  <si>
+    <t>Is a flag to indicate whether the benefits refer to in-network providers or out-of-network providers.</t>
+  </si>
+  <si>
+    <t>Needed as in or out of network providers are treated differently under the coverage.</t>
+  </si>
+  <si>
+    <t>Code to classify in or out of network services.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/benefit-network</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.unit</t>
+  </si>
+  <si>
+    <t>Individual or family</t>
+  </si>
+  <si>
+    <t>Indicates if the benefits apply to an individual or to the family.</t>
+  </si>
+  <si>
+    <t>Needed for the understanding of the benefits.</t>
+  </si>
+  <si>
+    <t>Unit covered/serviced - individual or family.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/benefit-unit</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.term</t>
+  </si>
+  <si>
+    <t>Annual or lifetime</t>
+  </si>
+  <si>
+    <t>The term or period of the values such as 'maximum lifetime benefit' or 'maximum annual visits'.</t>
+  </si>
+  <si>
+    <t>Coverage unit - annual, lifetime.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/benefit-term</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.insurance.item.benefit</t>
@@ -608,6 +907,33 @@
   </si>
   <si>
     <t>Benefits used to date.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.benefit.id</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.benefit.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.benefit.modifierExtension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.benefit.type</t>
+  </si>
+  <si>
+    <t>Classification of benefit being provided.</t>
+  </si>
+  <si>
+    <t>For example: deductible, visits, benefit amount.</t>
+  </si>
+  <si>
+    <t>Needed to convey the nature of the benefit.</t>
+  </si>
+  <si>
+    <t>Deductable, visits, co-pay, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/benefit-type</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.insurance.item.benefit.allowed[x]</t>
@@ -626,27 +952,6 @@
     <t>Needed to convey the benefits offered under the coverage.</t>
   </si>
   <si>
-    <t>CoverageEligibilityResponse.insurance.item.benefit.type</t>
-  </si>
-  <si>
-    <t>Benefit classification</t>
-  </si>
-  <si>
-    <t>Classification of benefit being provided.</t>
-  </si>
-  <si>
-    <t>For example: deductible, visits, benefit amount.</t>
-  </si>
-  <si>
-    <t>Needed to convey the nature of the benefit.</t>
-  </si>
-  <si>
-    <t>Deductable, visits, co-pay, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/benefit-type</t>
-  </si>
-  <si>
     <t>CoverageEligibilityResponse.insurance.item.benefit.used[x]</t>
   </si>
   <si>
@@ -659,248 +964,46 @@
     <t>Needed to convey the benefits consumed to date.</t>
   </si>
   <si>
-    <t>CoverageEligibilityResponse.insurance.item.category</t>
-  </si>
-  <si>
-    <t>Code to identify the general type of benefits under which products and services are provided.</t>
-  </si>
-  <si>
-    <t>Examples include Medical Care, Periodontics, Renal Dialysis, Vision Coverage.</t>
-  </si>
-  <si>
-    <t>Needed to convey the category of service or product for which eligibility is sought.</t>
-  </si>
-  <si>
-    <t>Benefit categories such as: oral, medical, vision etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-benefitcategory</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.description</t>
-  </si>
-  <si>
-    <t>Description of the benefit or services covered</t>
-  </si>
-  <si>
-    <t>A richer description of the benefit or services covered.</t>
-  </si>
-  <si>
-    <t>For example 'DENT2 covers 100% of basic, 50% of major but excludes Ortho, Implants and Cosmetic services'.</t>
-  </si>
-  <si>
-    <t>Needed for human readable reference.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.excluded</t>
-  </si>
-  <si>
-    <t>Excluded from the plan</t>
-  </si>
-  <si>
-    <t>True if the indicated class of service is excluded from the plan, missing or False indicates the product or service is included in the coverage.</t>
-  </si>
-  <si>
-    <t>Needed to identify items that are specifically excluded from the coverage.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.modifier</t>
-  </si>
-  <si>
-    <t>Product or service billing modifiers</t>
-  </si>
-  <si>
-    <t>Item typification or modifiers codes to convey additional context for the product or service.</t>
-  </si>
-  <si>
-    <t>For example in Oral whether the treatment is cosmetic or associated with TMJ, or for Medical whether the treatment was outside the clinic or out of office hours.</t>
-  </si>
-  <si>
-    <t>To support provision of the item or to charge an elevated fee.</t>
-  </si>
-  <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-modifiers</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.name</t>
-  </si>
-  <si>
-    <t>Short name for the benefit</t>
-  </si>
-  <si>
-    <t>A short name or tag for the benefit.</t>
-  </si>
-  <si>
-    <t>For example: MED01, or DENT2.</t>
-  </si>
-  <si>
-    <t>Required to align with other plan names.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.network</t>
-  </si>
-  <si>
-    <t>In or out of network</t>
-  </si>
-  <si>
-    <t>Is a flag to indicate whether the benefits refer to in-network providers or out-of-network providers.</t>
-  </si>
-  <si>
-    <t>Needed as in or out of network providers are treated differently under the coverage.</t>
-  </si>
-  <si>
-    <t>Code to classify in or out of network services.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/benefit-network</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.productOrService</t>
-  </si>
-  <si>
-    <t>Drug Code
-Bill CodeService Code</t>
-  </si>
-  <si>
-    <t>Billing, service, product, or drug code</t>
-  </si>
-  <si>
-    <t>This contains the product, service, drug or other billing code for the item.</t>
-  </si>
-  <si>
-    <t>Code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI).</t>
-  </si>
-  <si>
-    <t>Needed to convey the actual service or product for which eligibility is sought.</t>
-  </si>
-  <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-uscls</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Performing practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who is eligible for the provision of the product or service.</t>
-  </si>
-  <si>
-    <t>Needed to convey the eligible provider.</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.term</t>
-  </si>
-  <si>
-    <t>Annual or lifetime</t>
-  </si>
-  <si>
-    <t>The term or period of the values such as 'maximum lifetime benefit' or 'maximum annual visits'.</t>
-  </si>
-  <si>
-    <t>Needed for the understanding of the benefits.</t>
-  </si>
-  <si>
-    <t>Coverage unit - annual, lifetime.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/benefit-term</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurance.item.unit</t>
-  </si>
-  <si>
-    <t>Individual or family</t>
-  </si>
-  <si>
-    <t>Indicates if the benefits apply to an individual or to the family.</t>
-  </si>
-  <si>
-    <t>Unit covered/serviced - individual or family.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/benefit-unit</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.insurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Coverage issuer</t>
-  </si>
-  <si>
-    <t>The Insurer who issued the coverage in question and is the author of the response.</t>
-  </si>
-  <si>
-    <t>Need to identify the author.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.outcome</t>
-  </si>
-  <si>
-    <t>queued | complete | error | partial</t>
-  </si>
-  <si>
-    <t>The outcome of the request processing.</t>
-  </si>
-  <si>
-    <t>The resource may be used to indicate that: the request has been held (queued) for processing; that it has been processed and errors found (error); that no errors were found and that some of the adjudication has been undertaken (partial) or that all of the adjudication has been undertaken (complete).</t>
-  </si>
-  <si>
-    <t>To advise the requestor of an overall processing outcome.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The outcome of the processing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/remittance-outcome|4.0.1</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Intended recipient of products and services</t>
-  </si>
-  <si>
-    <t>The party who is the beneficiary of the supplied coverage and for whom eligibility is sought.</t>
-  </si>
-  <si>
-    <t>Required to provide context and coverage validation.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>C06,C07,C08, C05, C04</t>
+    <t>CoverageEligibilityResponse.insurance.item.authorizationRequired</t>
+  </si>
+  <si>
+    <t>Authorization required flag</t>
+  </si>
+  <si>
+    <t>A boolean flag indicating whether a preauthorization is required prior to actual service delivery.</t>
+  </si>
+  <si>
+    <t>Needed to convey that preauthorization is required.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.authorizationSupporting</t>
+  </si>
+  <si>
+    <t>Type of required supporting materials</t>
+  </si>
+  <si>
+    <t>Codes or comments regarding information or actions associated with the preauthorization.</t>
+  </si>
+  <si>
+    <t>Needed to inform the provider of collateral materials or actions needed for preauthorization.</t>
+  </si>
+  <si>
+    <t>Type of supporting information to provide with a preauthorization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverageeligibilityresponse-ex-auth-support</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.insurance.item.authorizationUrl</t>
+  </si>
+  <si>
+    <t>Preauthorization requirements endpoint</t>
+  </si>
+  <si>
+    <t>A web location for obtaining requirements or descriptive information regarding the preauthorization.</t>
+  </si>
+  <si>
+    <t>Needed to enable insurers to advise providers of informative information.</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.preAuthRef</t>
@@ -921,115 +1024,67 @@
     <t>23</t>
   </si>
   <si>
-    <t>CoverageEligibilityResponse.purpose</t>
-  </si>
-  <si>
-    <t>auth-requirements | benefits | discovery | validation</t>
-  </si>
-  <si>
-    <t>Code to specify whether requesting: prior authorization requirements for some service categories or billing codes; benefits for coverages specified or discovered; discovery and return of coverages for the patient; and/or validation that the specified coverage is in-force at the date/period specified or 'now' if not specified.</t>
-  </si>
-  <si>
-    <t>To indicate the processing actions requested.</t>
-  </si>
-  <si>
-    <t>A code specifying the types of information being requested.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/eligibilityresponse-purpose|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CoverageEligibilityRequest)
-</t>
-  </si>
-  <si>
-    <t>Eligibility request reference</t>
-  </si>
-  <si>
-    <t>Reference to the original request resource.</t>
-  </si>
-  <si>
-    <t>Needed to allow the response to be linked to the request.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>A02|G01</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.requestor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Party responsible for the request</t>
-  </si>
-  <si>
-    <t>The provider which is responsible for the request.</t>
-  </si>
-  <si>
-    <t>Typically this field would be 1..1 where this party is responsible for the claim but not necessarily professionally responsible for the provision of the individual products and services listed below.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.serviced[x]</t>
-  </si>
-  <si>
-    <t>date
-Period</t>
-  </si>
-  <si>
-    <t>Estimated date or dates of service</t>
-  </si>
-  <si>
-    <t>The date or dates when the enclosed suite of services were performed or completed.</t>
-  </si>
-  <si>
-    <t>Required to provide time context for the request.</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>F09</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityResponse.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
+    <t>CoverageEligibilityResponse.form</t>
+  </si>
+  <si>
+    <t>Printed form identifier</t>
+  </si>
+  <si>
+    <t>A code for the form to be used for printing the content.</t>
+  </si>
+  <si>
+    <t>May be needed to identify specific jurisdictional forms.</t>
+  </si>
+  <si>
+    <t>Needed to specify the specific form used for producing output for this response.</t>
+  </si>
+  <si>
+    <t>The forms codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/forms</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.error</t>
+  </si>
+  <si>
+    <t>Processing errors</t>
+  </si>
+  <si>
+    <t>Errors encountered during the processing of the request.</t>
+  </si>
+  <si>
+    <t>Need to communicate processing issues to the requestor.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.error.id</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.error.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.error.modifierExtension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityResponse.error.code</t>
+  </si>
+  <si>
+    <t>Error code detailing processing issues</t>
+  </si>
+  <si>
+    <t>An error code,from a specified code system, which details why the eligibility check could not be performed.</t>
+  </si>
+  <si>
+    <t>Required to convey processing errors.</t>
+  </si>
+  <si>
+    <t>The error codes for adjudication processing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adjudication-error</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1187,7 +1242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1214,7 +1269,7 @@
     <col min="25" max="25" width="67.6328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="61.95703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1429,7 +1484,7 @@
         <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>41</v>
@@ -1441,24 +1496,24 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1469,28 +1524,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1540,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1569,7 +1624,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1580,25 +1635,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1649,19 +1704,19 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1678,7 +1733,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1689,28 +1744,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1760,19 +1815,19 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -1789,7 +1844,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1800,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1812,16 +1867,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1847,43 +1902,43 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1900,18 +1955,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1923,16 +1978,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1982,40 +2037,40 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2034,16 +2089,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2093,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2117,16 +2172,16 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2145,16 +2200,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2192,19 +2247,19 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2216,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -2228,16 +2283,16 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2250,25 +2305,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2305,19 +2360,19 @@
         <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2329,7 +2384,7 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2341,12 +2396,12 @@
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2354,10 +2409,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2366,20 +2421,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2428,25 +2483,25 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2457,7 +2512,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2465,32 +2520,34 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2515,13 +2572,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2539,25 +2596,25 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2568,7 +2625,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2576,7 +2633,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>42</v>
@@ -2588,20 +2645,20 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2626,13 +2683,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2650,10 +2707,10 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>42</v>
@@ -2662,13 +2719,13 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2679,7 +2736,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2687,32 +2744,32 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2737,13 +2794,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2761,28 +2818,28 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2790,7 +2847,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2801,7 +2858,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2813,19 +2870,17 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2850,13 +2905,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2874,28 +2929,28 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -2903,7 +2958,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2911,32 +2966,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2985,25 +3040,25 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3014,7 +3069,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3022,10 +3077,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -3037,20 +3092,18 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3098,28 +3151,28 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3127,7 +3180,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3135,32 +3188,32 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3209,28 +3262,28 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3238,7 +3291,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3246,32 +3299,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3296,13 +3351,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3320,19 +3375,19 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
@@ -3349,7 +3404,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3360,7 +3415,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3372,17 +3427,17 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3431,22 +3486,22 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3460,7 +3515,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3468,10 +3523,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3480,19 +3535,21 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3540,19 +3597,19 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3569,7 +3626,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3580,7 +3637,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3592,17 +3649,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3651,19 +3710,19 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
@@ -3680,7 +3739,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3691,7 +3750,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3703,18 +3762,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3738,13 +3795,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3762,13 +3819,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3786,23 +3843,23 @@
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3814,18 +3871,18 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3873,19 +3930,19 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
@@ -3897,16 +3954,16 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3919,22 +3976,26 @@
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3982,7 +4043,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3994,7 +4055,7 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -4006,12 +4067,12 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4019,32 +4080,32 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4093,19 +4154,19 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -4122,7 +4183,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4130,10 +4191,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4145,19 +4206,17 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4182,13 +4241,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4206,19 +4265,19 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
@@ -4235,7 +4294,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4246,7 +4305,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4258,17 +4317,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4317,19 +4376,19 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4346,7 +4405,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4357,7 +4416,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4369,20 +4428,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4406,13 +4461,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4430,19 +4485,19 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
@@ -4459,7 +4514,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4470,7 +4525,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4482,20 +4537,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4543,13 +4594,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4567,23 +4618,23 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4595,18 +4646,18 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4654,19 +4705,19 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
@@ -4678,16 +4729,16 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4700,25 +4751,25 @@
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4743,13 +4794,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4767,7 +4818,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4779,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
@@ -4791,12 +4842,12 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4807,7 +4858,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4819,19 +4870,19 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4856,13 +4907,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4880,19 +4931,19 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
@@ -4913,14 +4964,14 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4932,17 +4983,19 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4967,13 +5020,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4997,13 +5050,13 @@
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -5020,18 +5073,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5043,19 +5096,19 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5080,13 +5133,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5104,19 +5157,19 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5133,7 +5186,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5144,7 +5197,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5156,17 +5209,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5215,28 +5268,28 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5244,7 +5297,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5255,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5267,17 +5320,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5302,13 +5355,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5326,19 +5379,19 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
@@ -5355,7 +5408,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5366,7 +5419,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5378,17 +5431,19 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5413,13 +5468,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5437,19 +5492,19 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
@@ -5466,7 +5521,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5474,10 +5529,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5486,20 +5541,22 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J39" t="s" s="2">
+      <c r="K39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5548,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
@@ -5577,7 +5634,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5585,10 +5642,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5597,22 +5654,20 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5637,13 +5692,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5661,19 +5716,19 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -5690,7 +5745,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5698,10 +5753,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5710,20 +5765,20 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5748,13 +5803,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5772,28 +5827,28 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5801,7 +5856,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5812,7 +5867,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5824,17 +5879,17 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5859,13 +5914,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -5883,19 +5938,19 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
@@ -5904,15 +5959,15 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5920,7 +5975,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>42</v>
@@ -5932,21 +5987,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5970,13 +6023,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5994,10 +6047,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>42</v>
@@ -6006,13 +6059,13 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6023,7 +6076,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6031,10 +6084,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6043,21 +6096,19 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J44" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6105,13 +6156,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6120,32 +6171,32 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6157,16 +6208,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6216,69 +6267,71 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6327,36 +6380,36 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6364,34 +6417,34 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6416,59 +6469,1393 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y47" t="s" s="2">
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AG47" t="s" s="2">
+      <c r="I58" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="J58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM47">
+  <autoFilter ref="A1:AM59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6478,7 +7865,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-CoverageEligibilityResponse.xlsx
+++ b/output/StructureDefinition-CoverageEligibilityResponse.xlsx
@@ -1242,45 +1242,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="62.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
